--- a/test.xlsx
+++ b/test.xlsx
@@ -20,36 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Column 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 2 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 3 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 4 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 2 Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 3 Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column 4 Value 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foo Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Foo</t>
   </si>
 </sst>
 </file>
@@ -177,15 +171,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="39.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="39.43"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,13 +201,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -229,33 +223,6 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
